--- a/templates/EPGW-BusinessRules-template.xlsx
+++ b/templates/EPGW-BusinessRules-template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/A92827E8C7DD4BDA/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\SiteReportBot\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{0C5189D9-0459-494D-BB24-06841A06BDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{607FF209-C1E1-4624-A5BA-984B138A8E62}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6507B5-A23D-46EA-BF3B-CF3CE75CEC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="143">
   <si>
     <t>BusinessRuleName</t>
   </si>
@@ -445,6 +445,12 @@
   </si>
   <si>
     <t>Excel will block invalid combos on entry and on paste.</t>
+  </si>
+  <si>
+    <t>Teet</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -784,11 +790,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI1"/>
+  <dimension ref="A1:BI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="BI2" sqref="BI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,6 +1043,23 @@
       </c>
       <c r="BI1" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
